--- a/data/new_aws_1000.xlsx
+++ b/data/new_aws_1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P70090005\Documents\AI-validation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maastrichtuniversity-my.sharepoint.com/personal/paula_gitu_maastrichtuniversity_nl/Documents/Desktop/phd/AI-validation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94CCCC4-E826-470E-8A37-ED27492D00AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C94CCCC4-E826-470E-8A37-ED27492D00AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FD3B0A9-6A95-4957-9CC6-2CE907D11CD6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6198,15 +6198,15 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="248.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>70</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>77</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>82</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>88</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>90</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>94</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>96</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>99</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>102</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>107</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>109</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>112</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>114</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>117</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>119</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>122</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>124</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>126</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>129</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>131</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>133</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>134</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>136</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>138</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>140</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>142</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>145</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>148</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>150</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>152</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>155</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>158</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>160</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>162</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>164</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>166</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>169</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>171</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>173</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>175</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>178</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>180</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>182</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>184</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>186</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>188</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>190</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>193</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>195</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>197</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>199</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>202</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>205</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>207</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>208</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>210</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>213</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>215</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>217</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>219</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>221</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>224</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>226</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>228</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>230</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>232</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>234</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>236</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>238</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>240</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>242</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>245</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>246</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>248</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>250</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>252</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>254</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>256</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>258</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>261</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>263</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>265</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>266</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>269</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>271</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>274</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>276</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>279</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>281</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>283</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>285</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>287</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>289</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>291</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>293</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>295</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>297</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>298</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>300</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>301</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>302</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>304</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>306</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>308</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>309</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>312</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>314</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>316</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>318</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>320</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>322</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>323</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>326</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>328</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>330</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>332</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>334</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>336</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>338</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>340</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>342</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>344</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>346</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>348</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>350</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>352</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>353</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>356</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>358</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>361</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>363</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>366</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>368</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>370</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>372</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>374</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>376</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>379</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>381</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>383</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>385</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>387</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>389</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>391</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>393</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>395</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>397</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>399</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>400</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>402</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>404</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>406</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>407</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>409</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>410</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>412</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>414</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>416</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>418</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>420</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>423</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>425</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>427</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>429</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>431</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>433</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>435</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>437</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>439</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>441</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>442</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>444</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>446</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>448</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>451</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>453</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>455</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>457</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>459</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>461</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>463</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>465</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>467</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>469</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>471</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>474</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>476</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>478</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>480</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>481</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>484</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>486</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>488</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>490</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>492</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>494</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>497</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>499</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>501</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>503</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>505</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>508</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>510</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>512</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>514</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>515</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>517</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>519</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>522</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>524</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>527</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>529</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>531</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>533</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>536</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>538</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>540</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>542</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>544</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>546</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>548</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>550</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>552</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>554</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>555</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>557</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>558</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>560</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>562</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>564</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>566</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>568</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>570</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>572</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>574</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>575</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>577</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>579</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>581</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>583</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>585</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>587</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>589</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>592</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>594</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>596</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>599</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>601</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>603</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>605</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>607</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>609</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>611</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>613</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>615</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>617</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>619</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>621</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>623</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>625</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>627</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>629</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>631</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>633</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>634</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>636</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>638</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>640</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>642</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>644</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>646</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>648</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>650</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>652</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>654</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>656</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>658</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>659</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>661</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>663</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>665</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>667</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>669</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>671</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>673</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>675</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>677</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>679</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>681</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>683</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>684</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>686</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>688</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>690</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>693</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>696</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>697</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>699</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>701</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>703</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>705</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>707</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>709</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>711</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>713</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>714</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>716</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>718</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>720</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>722</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>725</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>727</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>729</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>731</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>733</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>735</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>737</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>738</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>740</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>742</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>744</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>746</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>748</v>
       </c>
@@ -11134,7 +11134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>750</v>
       </c>
@@ -11148,7 +11148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>752</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>754</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>756</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>757</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>759</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>761</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>763</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>765</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>767</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>769</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>771</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>773</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>775</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>778</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>780</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>782</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>783</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>785</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>787</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>789</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
         <v>791</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
         <v>793</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>795</v>
       </c>
@@ -11470,7 +11470,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
         <v>797</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
         <v>799</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
         <v>801</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
         <v>803</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
         <v>805</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
         <v>807</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
         <v>809</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
         <v>811</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
         <v>813</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
         <v>815</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
         <v>817</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
         <v>819</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
         <v>821</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
         <v>823</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>825</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
         <v>827</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
         <v>828</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
         <v>829</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>831</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
         <v>833</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
         <v>835</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
         <v>837</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
         <v>839</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
         <v>841</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>844</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>846</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>847</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>849</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>850</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>852</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>854</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>856</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
         <v>858</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
         <v>859</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
         <v>861</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
         <v>863</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>865</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>867</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
         <v>869</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>871</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
         <v>873</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
         <v>875</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
         <v>877</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
         <v>879</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
         <v>881</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>883</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
         <v>885</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
         <v>887</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
         <v>889</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
         <v>891</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
         <v>893</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
         <v>895</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
         <v>897</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
         <v>900</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
         <v>902</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
         <v>904</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
         <v>906</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
         <v>908</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
         <v>909</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436" s="2" t="s">
         <v>911</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
         <v>913</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438" s="2" t="s">
         <v>915</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
         <v>917</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
         <v>919</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441" s="2" t="s">
         <v>921</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
         <v>923</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="2" t="s">
         <v>925</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
         <v>927</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
         <v>929</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="2" t="s">
         <v>932</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
         <v>933</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448" s="2" t="s">
         <v>935</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="2" t="s">
         <v>937</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A450" s="2" t="s">
         <v>939</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A451" s="2" t="s">
         <v>941</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="2" t="s">
         <v>943</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453" s="2" t="s">
         <v>945</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A454" s="2" t="s">
         <v>947</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="2" t="s">
         <v>949</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456" s="2" t="s">
         <v>951</v>
       </c>
@@ -12590,7 +12590,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A457" s="2" t="s">
         <v>952</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">
         <v>953</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459" s="2" t="s">
         <v>954</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A460" s="2" t="s">
         <v>956</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="2" t="s">
         <v>958</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A462" s="2" t="s">
         <v>960</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463" s="2" t="s">
         <v>962</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="2" t="s">
         <v>964</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465" s="2" t="s">
         <v>966</v>
       </c>
@@ -12716,7 +12716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466" s="2" t="s">
         <v>968</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="2" t="s">
         <v>970</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A468" s="2" t="s">
         <v>972</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A469" s="2" t="s">
         <v>973</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="2" t="s">
         <v>975</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A471" s="2" t="s">
         <v>977</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A472" s="2" t="s">
         <v>979</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="2" t="s">
         <v>980</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474" s="2" t="s">
         <v>982</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475" s="2" t="s">
         <v>984</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="2" t="s">
         <v>986</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A477" s="2" t="s">
         <v>988</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A478" s="2" t="s">
         <v>990</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="2" t="s">
         <v>992</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A480" s="2" t="s">
         <v>994</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A481" s="2" t="s">
         <v>996</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="2" t="s">
         <v>998</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483" s="2" t="s">
         <v>1000</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484" s="2" t="s">
         <v>1002</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="2" t="s">
         <v>1004</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A486" s="2" t="s">
         <v>1006</v>
       </c>
@@ -13010,7 +13010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A487" s="2" t="s">
         <v>1008</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="2" t="s">
         <v>1010</v>
       </c>
@@ -13038,7 +13038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
         <v>1012</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490" s="2" t="s">
         <v>1014</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="2" t="s">
         <v>1016</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492" s="2" t="s">
         <v>1018</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493" s="2" t="s">
         <v>1020</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
         <v>1021</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
         <v>1022</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A496" s="2" t="s">
         <v>1024</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="2" t="s">
         <v>1026</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A498" s="2" t="s">
         <v>1028</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A499" s="2" t="s">
         <v>1030</v>
       </c>
@@ -13192,7 +13192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="2" t="s">
         <v>1032</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A501" s="2" t="s">
         <v>1034</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A502" s="2" t="s">
         <v>1035</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="2" t="s">
         <v>1037</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504" s="2" t="s">
         <v>1039</v>
       </c>
@@ -13262,7 +13262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505" s="2" t="s">
         <v>1041</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="2" t="s">
         <v>1043</v>
       </c>
@@ -13290,7 +13290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507" s="2" t="s">
         <v>1045</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A508" s="2" t="s">
         <v>1047</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="2" t="s">
         <v>1049</v>
       </c>
@@ -13332,7 +13332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A510" s="2" t="s">
         <v>1051</v>
       </c>
@@ -13346,7 +13346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A511" s="2" t="s">
         <v>1053</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="2" t="s">
         <v>1056</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513" s="2" t="s">
         <v>1057</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A514" s="2" t="s">
         <v>1059</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="2" t="s">
         <v>1061</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A516" s="2" t="s">
         <v>1063</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A517" s="2" t="s">
         <v>1065</v>
       </c>
@@ -13444,7 +13444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="2" t="s">
         <v>1067</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A519" s="2" t="s">
         <v>1069</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A520" s="2" t="s">
         <v>1070</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="2" t="s">
         <v>1072</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A522" s="2" t="s">
         <v>1074</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A523" s="2" t="s">
         <v>1076</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="2" t="s">
         <v>1078</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A525" s="2" t="s">
         <v>1079</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A526" s="2" t="s">
         <v>1081</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="2" t="s">
         <v>1083</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A528" s="2" t="s">
         <v>1085</v>
       </c>
@@ -13598,7 +13598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A529" s="2" t="s">
         <v>1087</v>
       </c>
@@ -13612,7 +13612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="2" t="s">
         <v>1089</v>
       </c>
@@ -13626,7 +13626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A531" s="2" t="s">
         <v>1091</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A532" s="2" t="s">
         <v>1093</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="2" t="s">
         <v>1095</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A534" s="2" t="s">
         <v>1097</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A535" s="2" t="s">
         <v>1098</v>
       </c>
@@ -13696,7 +13696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="2" t="s">
         <v>1100</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A537" s="2" t="s">
         <v>1102</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A538" s="2" t="s">
         <v>1104</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="2" t="s">
         <v>1106</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A540" s="2" t="s">
         <v>1108</v>
       </c>
@@ -13766,7 +13766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A541" s="2" t="s">
         <v>1110</v>
       </c>
@@ -13780,7 +13780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="2" t="s">
         <v>1112</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A543" s="2" t="s">
         <v>1114</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A544" s="2" t="s">
         <v>1116</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="2" t="s">
         <v>1118</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A546" s="2" t="s">
         <v>1119</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A547" s="2" t="s">
         <v>1121</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="2" t="s">
         <v>1123</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A549" s="2" t="s">
         <v>1125</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A550" s="2" t="s">
         <v>1127</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="2" t="s">
         <v>1128</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A552" s="2" t="s">
         <v>1130</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A553" s="2" t="s">
         <v>1132</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="2" t="s">
         <v>1134</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A555" s="2" t="s">
         <v>1136</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A556" s="2" t="s">
         <v>1138</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="2" t="s">
         <v>1140</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A558" s="2" t="s">
         <v>1142</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A559" s="2" t="s">
         <v>1144</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" s="2" t="s">
         <v>1146</v>
       </c>
@@ -14046,7 +14046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A561" s="2" t="s">
         <v>1148</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A562" s="2" t="s">
         <v>1150</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="2" t="s">
         <v>1152</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A564" s="2" t="s">
         <v>1153</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A565" s="2" t="s">
         <v>1154</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="2" t="s">
         <v>1156</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A567" s="2" t="s">
         <v>1158</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A568" s="2" t="s">
         <v>1160</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="2" t="s">
         <v>1162</v>
       </c>
@@ -14172,7 +14172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A570" s="2" t="s">
         <v>1164</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A571" s="2" t="s">
         <v>1166</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="2" t="s">
         <v>1168</v>
       </c>
@@ -14214,7 +14214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A573" s="2" t="s">
         <v>1169</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A574" s="2" t="s">
         <v>1171</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="2" t="s">
         <v>1173</v>
       </c>
@@ -14256,7 +14256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A576" s="2" t="s">
         <v>1174</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A577" s="2" t="s">
         <v>1176</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="2" t="s">
         <v>1178</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A579" s="2" t="s">
         <v>1180</v>
       </c>
@@ -14312,7 +14312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A580" s="2" t="s">
         <v>1181</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A581" s="2" t="s">
         <v>1182</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A582" s="2" t="s">
         <v>1184</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A583" s="2" t="s">
         <v>1186</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A584" s="2" t="s">
         <v>1188</v>
       </c>
@@ -14382,7 +14382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A585" s="2" t="s">
         <v>1190</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A586" s="2" t="s">
         <v>1192</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A587" s="2" t="s">
         <v>1194</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A588" s="2" t="s">
         <v>1196</v>
       </c>
@@ -14438,7 +14438,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A589" s="2" t="s">
         <v>1198</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A590" s="2" t="s">
         <v>1200</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A591" s="2" t="s">
         <v>1202</v>
       </c>
@@ -14480,7 +14480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A592" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14494,7 +14494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A593" s="2" t="s">
         <v>1206</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A594" s="2" t="s">
         <v>1208</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A595" s="2" t="s">
         <v>1210</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A596" s="2" t="s">
         <v>1212</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A597" s="2" t="s">
         <v>1214</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A598" s="2" t="s">
         <v>1216</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A599" s="2" t="s">
         <v>1218</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A600" s="2" t="s">
         <v>1220</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A601" s="2" t="s">
         <v>1221</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A602" s="2" t="s">
         <v>1223</v>
       </c>
@@ -14634,7 +14634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A603" s="2" t="s">
         <v>1225</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A604" s="2" t="s">
         <v>1227</v>
       </c>
@@ -14662,7 +14662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A605" s="2" t="s">
         <v>1228</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A606" s="2" t="s">
         <v>1230</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A607" s="2" t="s">
         <v>1232</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A608" s="2" t="s">
         <v>1234</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A609" s="2" t="s">
         <v>1235</v>
       </c>
@@ -14732,7 +14732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A610" s="2" t="s">
         <v>1237</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A611" s="2" t="s">
         <v>1239</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A612" s="2" t="s">
         <v>1241</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A613" s="2" t="s">
         <v>1243</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A614" s="2" t="s">
         <v>1245</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A615" s="2" t="s">
         <v>1247</v>
       </c>
@@ -14816,7 +14816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A616" s="2" t="s">
         <v>1249</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A617" s="2" t="s">
         <v>1251</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A618" s="2" t="s">
         <v>1253</v>
       </c>
@@ -14858,7 +14858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A619" s="2" t="s">
         <v>1254</v>
       </c>
@@ -14872,7 +14872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A620" s="2" t="s">
         <v>1256</v>
       </c>
@@ -14886,7 +14886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A621" s="2" t="s">
         <v>1258</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A622" s="2" t="s">
         <v>1260</v>
       </c>
@@ -14914,7 +14914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A623" s="2" t="s">
         <v>1262</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A624" s="2" t="s">
         <v>1264</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A625" s="2" t="s">
         <v>1266</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A626" s="2" t="s">
         <v>1268</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A627" s="2" t="s">
         <v>1269</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A628" s="2" t="s">
         <v>1271</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A629" s="2" t="s">
         <v>1272</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A630" s="2" t="s">
         <v>1273</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A631" s="2" t="s">
         <v>1275</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A632" s="2" t="s">
         <v>1277</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A633" s="2" t="s">
         <v>1278</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A634" s="2" t="s">
         <v>1280</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A635" s="2" t="s">
         <v>1282</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A636" s="2" t="s">
         <v>1284</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A637" s="2" t="s">
         <v>1285</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A638" s="2" t="s">
         <v>1286</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A639" s="2" t="s">
         <v>1288</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A640" s="2" t="s">
         <v>1290</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A641" s="2" t="s">
         <v>1292</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A642" s="2" t="s">
         <v>1294</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A643" s="2" t="s">
         <v>1296</v>
       </c>
@@ -15208,7 +15208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A644" s="2" t="s">
         <v>1298</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A645" s="2" t="s">
         <v>1299</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A646" s="2" t="s">
         <v>1301</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A647" s="2" t="s">
         <v>1303</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A648" s="2" t="s">
         <v>1305</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A649" s="2" t="s">
         <v>1307</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A650" s="2" t="s">
         <v>1309</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A651" s="2" t="s">
         <v>1311</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A652" s="2" t="s">
         <v>1313</v>
       </c>
@@ -15334,7 +15334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A653" s="2" t="s">
         <v>1315</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A654" s="2" t="s">
         <v>1316</v>
       </c>
@@ -15362,7 +15362,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="655" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A655" s="2" t="s">
         <v>1318</v>
       </c>
@@ -15376,7 +15376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A656" s="2" t="s">
         <v>1320</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A657" s="2" t="s">
         <v>1322</v>
       </c>
@@ -15404,7 +15404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="658" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A658" s="2" t="s">
         <v>1324</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A659" s="2" t="s">
         <v>1326</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A660" s="2" t="s">
         <v>1328</v>
       </c>
@@ -15446,7 +15446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="661" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A661" s="2" t="s">
         <v>1330</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A662" s="2" t="s">
         <v>1332</v>
       </c>
@@ -15474,7 +15474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="663" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A663" s="2" t="s">
         <v>1334</v>
       </c>
@@ -15488,7 +15488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A664" s="2" t="s">
         <v>1335</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="665" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A665" s="2" t="s">
         <v>1337</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="666" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A666" s="2" t="s">
         <v>1338</v>
       </c>
@@ -15530,7 +15530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="667" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A667" s="2" t="s">
         <v>1340</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="668" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A668" s="2" t="s">
         <v>1342</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="669" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A669" s="2" t="s">
         <v>1344</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="670" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A670" s="2" t="s">
         <v>1345</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="671" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A671" s="2" t="s">
         <v>1346</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A672" s="2" t="s">
         <v>1348</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="673" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A673" s="2" t="s">
         <v>1350</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A674" s="2" t="s">
         <v>1352</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="675" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A675" s="2" t="s">
         <v>1354</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="676" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A676" s="2" t="s">
         <v>1356</v>
       </c>
@@ -15670,7 +15670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="677" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A677" s="2" t="s">
         <v>1358</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A678" s="2" t="s">
         <v>1360</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="679" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A679" s="2" t="s">
         <v>1361</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="680" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A680" s="2" t="s">
         <v>1363</v>
       </c>
@@ -15726,7 +15726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A681" s="2" t="s">
         <v>1364</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="682" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A682" s="2" t="s">
         <v>1366</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A683" s="2" t="s">
         <v>1368</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="684" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A684" s="2" t="s">
         <v>1370</v>
       </c>
@@ -15782,7 +15782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="685" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A685" s="2" t="s">
         <v>1372</v>
       </c>
@@ -15796,7 +15796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A686" s="2" t="s">
         <v>1374</v>
       </c>
@@ -15810,7 +15810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="687" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A687" s="2" t="s">
         <v>1376</v>
       </c>
@@ -15824,7 +15824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A688" s="2" t="s">
         <v>1379</v>
       </c>
@@ -15838,7 +15838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="689" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A689" s="2" t="s">
         <v>1380</v>
       </c>
@@ -15852,7 +15852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="690" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A690" s="2" t="s">
         <v>1382</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A691" s="2" t="s">
         <v>1384</v>
       </c>
@@ -15880,7 +15880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="692" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A692" s="2" t="s">
         <v>1386</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="693" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A693" s="2" t="s">
         <v>1387</v>
       </c>
@@ -15908,7 +15908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="694" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A694" s="2" t="s">
         <v>1389</v>
       </c>
@@ -15922,7 +15922,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="695" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A695" s="2" t="s">
         <v>1391</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="696" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A696" s="2" t="s">
         <v>1393</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="697" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A697" s="2" t="s">
         <v>1395</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="698" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A698" s="2" t="s">
         <v>1397</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="699" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A699" s="2" t="s">
         <v>1399</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="700" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A700" s="2" t="s">
         <v>1401</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="701" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A701" s="2" t="s">
         <v>1403</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="702" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A702" s="2" t="s">
         <v>1405</v>
       </c>
@@ -16034,7 +16034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="703" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A703" s="2" t="s">
         <v>1407</v>
       </c>
@@ -16048,7 +16048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A704" s="2" t="s">
         <v>1409</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="705" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A705" s="2" t="s">
         <v>1410</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="706" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A706" s="2" t="s">
         <v>1411</v>
       </c>
@@ -16090,7 +16090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="707" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A707" s="2" t="s">
         <v>1413</v>
       </c>
@@ -16104,7 +16104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="708" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A708" s="2" t="s">
         <v>1415</v>
       </c>
@@ -16118,7 +16118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="709" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A709" s="2" t="s">
         <v>1416</v>
       </c>
@@ -16132,7 +16132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="710" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A710" s="2" t="s">
         <v>1417</v>
       </c>
@@ -16146,7 +16146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="711" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A711" s="2" t="s">
         <v>1419</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="712" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A712" s="2" t="s">
         <v>1421</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="713" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A713" s="2" t="s">
         <v>1423</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="714" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A714" s="2" t="s">
         <v>1425</v>
       </c>
@@ -16202,7 +16202,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="715" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A715" s="2" t="s">
         <v>1427</v>
       </c>
@@ -16216,7 +16216,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="716" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A716" s="2" t="s">
         <v>1428</v>
       </c>
@@ -16230,7 +16230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="717" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A717" s="2" t="s">
         <v>1430</v>
       </c>
@@ -16244,7 +16244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="718" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A718" s="2" t="s">
         <v>1432</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="719" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A719" s="2" t="s">
         <v>1434</v>
       </c>
@@ -16272,7 +16272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="720" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A720" s="2" t="s">
         <v>1436</v>
       </c>
@@ -16286,7 +16286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="721" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A721" s="2" t="s">
         <v>1438</v>
       </c>
@@ -16300,7 +16300,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="722" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A722" s="2" t="s">
         <v>1440</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="723" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A723" s="2" t="s">
         <v>1442</v>
       </c>
@@ -16328,7 +16328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="724" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A724" s="2" t="s">
         <v>1444</v>
       </c>
@@ -16342,7 +16342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="725" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A725" s="2" t="s">
         <v>1445</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="726" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A726" s="2" t="s">
         <v>1446</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="727" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A727" s="2" t="s">
         <v>1447</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="728" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A728" s="2" t="s">
         <v>1448</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="729" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A729" s="2" t="s">
         <v>1449</v>
       </c>
@@ -16412,7 +16412,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="730" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A730" s="2" t="s">
         <v>1451</v>
       </c>
@@ -16426,7 +16426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="731" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A731" s="2" t="s">
         <v>1453</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="732" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A732" s="2" t="s">
         <v>1455</v>
       </c>
@@ -16454,7 +16454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="733" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A733" s="2" t="s">
         <v>1457</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="734" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A734" s="2" t="s">
         <v>1459</v>
       </c>
@@ -16482,7 +16482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="735" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A735" s="2" t="s">
         <v>1461</v>
       </c>
@@ -16496,7 +16496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="736" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A736" s="2" t="s">
         <v>1463</v>
       </c>
@@ -16510,7 +16510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="737" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A737" s="2" t="s">
         <v>1465</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="738" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A738" s="2" t="s">
         <v>1467</v>
       </c>
@@ -16538,7 +16538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="739" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A739" s="2" t="s">
         <v>1469</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="740" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A740" s="2" t="s">
         <v>1470</v>
       </c>
@@ -16566,7 +16566,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="741" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A741" s="2" t="s">
         <v>1472</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="742" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A742" s="2" t="s">
         <v>1474</v>
       </c>
@@ -16594,7 +16594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="743" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A743" s="2" t="s">
         <v>1476</v>
       </c>
@@ -16608,7 +16608,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="744" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A744" s="2" t="s">
         <v>1478</v>
       </c>
@@ -16622,7 +16622,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="745" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A745" s="2" t="s">
         <v>1480</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="746" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A746" s="2" t="s">
         <v>1482</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="747" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A747" s="2" t="s">
         <v>1484</v>
       </c>
@@ -16664,7 +16664,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="748" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A748" s="2" t="s">
         <v>1486</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="749" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A749" s="2" t="s">
         <v>1488</v>
       </c>
@@ -16692,7 +16692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="750" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A750" s="2" t="s">
         <v>1489</v>
       </c>
@@ -16706,7 +16706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="751" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A751" s="2" t="s">
         <v>1491</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="752" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A752" s="2" t="s">
         <v>1493</v>
       </c>
@@ -16734,7 +16734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="753" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A753" s="2" t="s">
         <v>1495</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="754" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A754" s="2" t="s">
         <v>1497</v>
       </c>
@@ -16762,7 +16762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="755" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A755" s="2" t="s">
         <v>1499</v>
       </c>
@@ -16776,7 +16776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="756" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A756" s="2" t="s">
         <v>1501</v>
       </c>
@@ -16790,7 +16790,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="757" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A757" s="2" t="s">
         <v>1503</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="758" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A758" s="2" t="s">
         <v>1504</v>
       </c>
@@ -16818,7 +16818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="759" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A759" s="2" t="s">
         <v>1506</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="760" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A760" s="2" t="s">
         <v>1508</v>
       </c>
@@ -16846,7 +16846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="761" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A761" s="2" t="s">
         <v>1510</v>
       </c>
@@ -16860,7 +16860,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="762" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A762" s="2" t="s">
         <v>1511</v>
       </c>
@@ -16874,7 +16874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="763" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A763" s="2" t="s">
         <v>1513</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="764" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A764" s="2" t="s">
         <v>1515</v>
       </c>
@@ -16902,7 +16902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="765" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A765" s="2" t="s">
         <v>1516</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="766" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A766" s="2" t="s">
         <v>1517</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="767" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A767" s="2" t="s">
         <v>1519</v>
       </c>
@@ -16944,7 +16944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="768" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A768" s="2" t="s">
         <v>1520</v>
       </c>
@@ -16958,7 +16958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="769" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A769" s="2" t="s">
         <v>1521</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="770" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A770" s="2" t="s">
         <v>1523</v>
       </c>
@@ -16986,7 +16986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="771" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A771" s="2" t="s">
         <v>1525</v>
       </c>
@@ -17000,7 +17000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="772" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A772" s="2" t="s">
         <v>1528</v>
       </c>
@@ -17014,7 +17014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="773" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A773" s="2" t="s">
         <v>1529</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="774" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A774" s="2" t="s">
         <v>1531</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="775" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A775" s="2" t="s">
         <v>1533</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="776" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A776" s="2" t="s">
         <v>1534</v>
       </c>
@@ -17070,7 +17070,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="777" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A777" s="2" t="s">
         <v>1536</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="778" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A778" s="2" t="s">
         <v>1538</v>
       </c>
@@ -17098,7 +17098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="779" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A779" s="2" t="s">
         <v>1540</v>
       </c>
@@ -17112,7 +17112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="780" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A780" s="2" t="s">
         <v>1542</v>
       </c>
@@ -17126,7 +17126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="781" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A781" s="2" t="s">
         <v>1543</v>
       </c>
@@ -17140,7 +17140,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="782" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A782" s="2" t="s">
         <v>1545</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="783" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A783" s="2" t="s">
         <v>1547</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A784" s="2" t="s">
         <v>1549</v>
       </c>
@@ -17182,7 +17182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="785" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A785" s="2" t="s">
         <v>1551</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="786" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A786" s="2" t="s">
         <v>1553</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="787" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A787" s="2" t="s">
         <v>1555</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="788" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A788" s="2" t="s">
         <v>1557</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="789" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A789" s="2" t="s">
         <v>1559</v>
       </c>
@@ -17252,7 +17252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="790" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A790" s="2" t="s">
         <v>1561</v>
       </c>
@@ -17266,7 +17266,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="791" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A791" s="2" t="s">
         <v>1563</v>
       </c>
@@ -17280,7 +17280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="792" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A792" s="2" t="s">
         <v>1565</v>
       </c>
@@ -17294,7 +17294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="793" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A793" s="2" t="s">
         <v>1566</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="794" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A794" s="2" t="s">
         <v>1568</v>
       </c>
@@ -17322,7 +17322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="795" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A795" s="2" t="s">
         <v>1570</v>
       </c>
@@ -17336,7 +17336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="796" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A796" s="2" t="s">
         <v>1572</v>
       </c>
@@ -17350,7 +17350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="797" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A797" s="2" t="s">
         <v>1573</v>
       </c>
@@ -17364,7 +17364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="798" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A798" s="2" t="s">
         <v>1574</v>
       </c>
@@ -17378,7 +17378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="799" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A799" s="2" t="s">
         <v>1576</v>
       </c>
@@ -17392,7 +17392,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="800" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A800" s="2" t="s">
         <v>1578</v>
       </c>
@@ -17406,7 +17406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="801" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A801" s="2" t="s">
         <v>1579</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="802" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A802" s="2" t="s">
         <v>1581</v>
       </c>
@@ -17434,7 +17434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="803" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A803" s="2" t="s">
         <v>1583</v>
       </c>
@@ -17448,7 +17448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="804" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A804" s="2" t="s">
         <v>1585</v>
       </c>
@@ -17462,7 +17462,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="805" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A805" s="2" t="s">
         <v>1588</v>
       </c>
@@ -17476,7 +17476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="806" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A806" s="2" t="s">
         <v>1589</v>
       </c>
@@ -17490,7 +17490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="807" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A807" s="2" t="s">
         <v>1591</v>
       </c>
@@ -17504,7 +17504,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="808" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A808" s="2" t="s">
         <v>1592</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="809" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A809" s="2" t="s">
         <v>1594</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="810" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A810" s="2" t="s">
         <v>1596</v>
       </c>
@@ -17546,7 +17546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="811" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A811" s="2" t="s">
         <v>1598</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="812" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A812" s="2" t="s">
         <v>1600</v>
       </c>
@@ -17574,7 +17574,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="813" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A813" s="2" t="s">
         <v>1601</v>
       </c>
@@ -17588,7 +17588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="814" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A814" s="2" t="s">
         <v>1603</v>
       </c>
@@ -17602,7 +17602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="815" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A815" s="2" t="s">
         <v>1604</v>
       </c>
@@ -17616,7 +17616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="816" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A816" s="2" t="s">
         <v>1606</v>
       </c>
@@ -17630,7 +17630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="817" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A817" s="2" t="s">
         <v>1608</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="818" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A818" s="2" t="s">
         <v>1610</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="819" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A819" s="2" t="s">
         <v>1611</v>
       </c>
@@ -17672,7 +17672,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="820" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A820" s="2" t="s">
         <v>1613</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="821" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A821" s="2" t="s">
         <v>1615</v>
       </c>
@@ -17700,7 +17700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="822" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A822" s="2" t="s">
         <v>1617</v>
       </c>
@@ -17714,7 +17714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="823" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A823" s="2" t="s">
         <v>1619</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="824" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A824" s="2" t="s">
         <v>1622</v>
       </c>
@@ -17742,7 +17742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="825" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A825" s="2" t="s">
         <v>1624</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="826" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A826" s="2" t="s">
         <v>1626</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="827" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A827" s="2" t="s">
         <v>1628</v>
       </c>
@@ -17784,7 +17784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="828" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A828" s="2" t="s">
         <v>1630</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="829" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A829" s="2" t="s">
         <v>1632</v>
       </c>
@@ -17812,7 +17812,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="830" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A830" s="2" t="s">
         <v>1634</v>
       </c>
@@ -17826,7 +17826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="831" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A831" s="2" t="s">
         <v>1636</v>
       </c>
@@ -17840,7 +17840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="832" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A832" s="2" t="s">
         <v>1638</v>
       </c>
@@ -17854,7 +17854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="833" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A833" s="2" t="s">
         <v>1640</v>
       </c>
@@ -17868,7 +17868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="834" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A834" s="2" t="s">
         <v>1642</v>
       </c>
@@ -17882,7 +17882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="835" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A835" s="2" t="s">
         <v>1644</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="836" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A836" s="2" t="s">
         <v>1646</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="837" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A837" s="2" t="s">
         <v>1647</v>
       </c>
@@ -17924,7 +17924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="838" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A838" s="2" t="s">
         <v>1649</v>
       </c>
@@ -17938,7 +17938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="839" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A839" s="2" t="s">
         <v>1651</v>
       </c>
@@ -17952,7 +17952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="840" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A840" s="2" t="s">
         <v>1653</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="841" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A841" s="2" t="s">
         <v>1655</v>
       </c>
@@ -17980,7 +17980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="842" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A842" s="2" t="s">
         <v>1657</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="843" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A843" s="2" t="s">
         <v>1659</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="844" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A844" s="2" t="s">
         <v>1661</v>
       </c>
@@ -18022,7 +18022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="845" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A845" s="2" t="s">
         <v>1663</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="846" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A846" s="2" t="s">
         <v>1665</v>
       </c>
@@ -18050,7 +18050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="847" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A847" s="2" t="s">
         <v>1667</v>
       </c>
@@ -18064,7 +18064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="848" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A848" s="2" t="s">
         <v>1668</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="849" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A849" s="2" t="s">
         <v>1669</v>
       </c>
@@ -18092,7 +18092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="850" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A850" s="2" t="s">
         <v>1671</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="851" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A851" s="2" t="s">
         <v>1673</v>
       </c>
@@ -18120,7 +18120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="852" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A852" s="2" t="s">
         <v>1675</v>
       </c>
@@ -18134,7 +18134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="853" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A853" s="2" t="s">
         <v>1677</v>
       </c>
@@ -18148,7 +18148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="854" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A854" s="2" t="s">
         <v>1679</v>
       </c>
@@ -18162,7 +18162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="855" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A855" s="2" t="s">
         <v>1681</v>
       </c>
@@ -18176,7 +18176,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="856" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A856" s="2" t="s">
         <v>1683</v>
       </c>
@@ -18190,7 +18190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="857" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A857" s="2" t="s">
         <v>1685</v>
       </c>
@@ -18204,7 +18204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="858" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A858" s="2" t="s">
         <v>1686</v>
       </c>
@@ -18218,7 +18218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="859" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A859" s="2" t="s">
         <v>1687</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="860" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A860" s="2" t="s">
         <v>1688</v>
       </c>
@@ -18246,7 +18246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="861" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A861" s="2" t="s">
         <v>1689</v>
       </c>
@@ -18260,7 +18260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="862" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A862" s="2" t="s">
         <v>1691</v>
       </c>
@@ -18274,7 +18274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="863" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A863" s="2" t="s">
         <v>1693</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="864" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A864" s="2" t="s">
         <v>1694</v>
       </c>
@@ -18302,7 +18302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="865" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A865" s="2" t="s">
         <v>1695</v>
       </c>
@@ -18316,7 +18316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="866" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A866" s="2" t="s">
         <v>1697</v>
       </c>
@@ -18330,7 +18330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="867" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A867" s="2" t="s">
         <v>1699</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="868" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A868" s="2" t="s">
         <v>1701</v>
       </c>
@@ -18358,7 +18358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="869" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A869" s="2" t="s">
         <v>1703</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="870" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A870" s="2" t="s">
         <v>1705</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="871" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A871" s="2" t="s">
         <v>1707</v>
       </c>
@@ -18400,7 +18400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="872" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A872" s="2" t="s">
         <v>1709</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="873" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A873" s="2" t="s">
         <v>1711</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="874" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A874" s="2" t="s">
         <v>1713</v>
       </c>
@@ -18442,7 +18442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="875" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A875" s="2" t="s">
         <v>1715</v>
       </c>
@@ -18456,7 +18456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="876" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A876" s="2" t="s">
         <v>1717</v>
       </c>
@@ -18470,7 +18470,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="877" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A877" s="2" t="s">
         <v>1719</v>
       </c>
@@ -18484,7 +18484,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="878" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A878" s="2" t="s">
         <v>1721</v>
       </c>
@@ -18498,7 +18498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="879" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A879" s="2" t="s">
         <v>1723</v>
       </c>
@@ -18512,7 +18512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="880" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A880" s="2" t="s">
         <v>1725</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="881" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A881" s="2" t="s">
         <v>1726</v>
       </c>
@@ -18540,7 +18540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="882" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A882" s="2" t="s">
         <v>1727</v>
       </c>
@@ -18554,7 +18554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="883" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A883" s="2" t="s">
         <v>1729</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="884" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A884" s="2" t="s">
         <v>1730</v>
       </c>
@@ -18582,7 +18582,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="885" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A885" s="2" t="s">
         <v>1732</v>
       </c>
@@ -18596,7 +18596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="886" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A886" s="2" t="s">
         <v>1734</v>
       </c>
@@ -18610,7 +18610,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="887" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A887" s="2" t="s">
         <v>1735</v>
       </c>
@@ -18624,7 +18624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="888" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A888" s="2" t="s">
         <v>1737</v>
       </c>
@@ -18638,7 +18638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="889" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A889" s="2" t="s">
         <v>1739</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="890" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A890" s="2" t="s">
         <v>1740</v>
       </c>
@@ -18666,7 +18666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="891" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A891" s="2" t="s">
         <v>1742</v>
       </c>
@@ -18680,7 +18680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="892" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A892" s="2" t="s">
         <v>1743</v>
       </c>
@@ -18694,7 +18694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="893" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A893" s="2" t="s">
         <v>1745</v>
       </c>
@@ -18708,7 +18708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="894" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A894" s="2" t="s">
         <v>1747</v>
       </c>
@@ -18722,7 +18722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="895" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A895" s="2" t="s">
         <v>1749</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="896" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A896" s="2" t="s">
         <v>1751</v>
       </c>
@@ -18750,7 +18750,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="897" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A897" s="2" t="s">
         <v>1753</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="898" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A898" s="2" t="s">
         <v>1754</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="899" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A899" s="2" t="s">
         <v>1755</v>
       </c>
@@ -18792,7 +18792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="900" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A900" s="2" t="s">
         <v>1756</v>
       </c>
@@ -18806,7 +18806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="901" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A901" s="2" t="s">
         <v>1758</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="902" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A902" s="2" t="s">
         <v>1760</v>
       </c>
@@ -18834,7 +18834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="903" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A903" s="2" t="s">
         <v>1762</v>
       </c>
@@ -18848,7 +18848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="904" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A904" s="2" t="s">
         <v>1764</v>
       </c>
@@ -18862,7 +18862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="905" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A905" s="2" t="s">
         <v>1766</v>
       </c>
@@ -18876,7 +18876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="906" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A906" s="2" t="s">
         <v>1768</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="907" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A907" s="2" t="s">
         <v>1770</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="908" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A908" s="2" t="s">
         <v>1772</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="909" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A909" s="2" t="s">
         <v>1774</v>
       </c>
@@ -18932,7 +18932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="910" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A910" s="2" t="s">
         <v>1776</v>
       </c>
@@ -18946,7 +18946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="911" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A911" s="2" t="s">
         <v>1777</v>
       </c>
@@ -18960,7 +18960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="912" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A912" s="2" t="s">
         <v>1779</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="913" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A913" s="2" t="s">
         <v>1781</v>
       </c>
@@ -18988,7 +18988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="914" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A914" s="2" t="s">
         <v>1783</v>
       </c>
@@ -19002,7 +19002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="915" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A915" s="2" t="s">
         <v>1785</v>
       </c>
@@ -19016,7 +19016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="916" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A916" s="2" t="s">
         <v>1787</v>
       </c>
@@ -19030,7 +19030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="917" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A917" s="2" t="s">
         <v>1788</v>
       </c>
@@ -19044,7 +19044,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="918" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A918" s="2" t="s">
         <v>1790</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="919" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A919" s="2" t="s">
         <v>1792</v>
       </c>
@@ -19072,7 +19072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="920" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A920" s="2" t="s">
         <v>1794</v>
       </c>
@@ -19086,7 +19086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="921" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A921" s="2" t="s">
         <v>1796</v>
       </c>
@@ -19100,7 +19100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="922" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A922" s="2" t="s">
         <v>1798</v>
       </c>
@@ -19114,7 +19114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="923" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A923" s="2" t="s">
         <v>1800</v>
       </c>
@@ -19128,7 +19128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="924" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A924" s="2" t="s">
         <v>1801</v>
       </c>
@@ -19142,7 +19142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="925" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A925" s="2" t="s">
         <v>1803</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="926" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A926" s="2" t="s">
         <v>1805</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="927" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A927" s="2" t="s">
         <v>1806</v>
       </c>
@@ -19184,7 +19184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="928" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A928" s="2" t="s">
         <v>1808</v>
       </c>
@@ -19198,7 +19198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="929" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A929" s="2" t="s">
         <v>1809</v>
       </c>
@@ -19212,7 +19212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="930" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A930" s="2" t="s">
         <v>1811</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="931" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A931" s="2" t="s">
         <v>1813</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="932" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A932" s="2" t="s">
         <v>1815</v>
       </c>
@@ -19254,7 +19254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="933" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A933" s="2" t="s">
         <v>1817</v>
       </c>
@@ -19268,7 +19268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="934" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A934" s="2" t="s">
         <v>1819</v>
       </c>
@@ -19282,7 +19282,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="935" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A935" s="2" t="s">
         <v>1820</v>
       </c>
@@ -19296,7 +19296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="936" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A936" s="2" t="s">
         <v>1822</v>
       </c>
@@ -19310,7 +19310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="937" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A937" s="2" t="s">
         <v>1825</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="938" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A938" s="2" t="s">
         <v>1827</v>
       </c>
@@ -19338,7 +19338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="939" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A939" s="2" t="s">
         <v>1829</v>
       </c>
@@ -19352,7 +19352,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="940" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A940" s="2" t="s">
         <v>1830</v>
       </c>
@@ -19366,7 +19366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="941" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A941" s="2" t="s">
         <v>1832</v>
       </c>
@@ -19380,7 +19380,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="942" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A942" s="2" t="s">
         <v>1834</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="943" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A943" s="2" t="s">
         <v>1835</v>
       </c>
@@ -19408,7 +19408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="944" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A944" s="2" t="s">
         <v>1836</v>
       </c>
@@ -19422,7 +19422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="945" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A945" s="2" t="s">
         <v>1838</v>
       </c>
@@ -19436,7 +19436,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="946" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A946" s="2" t="s">
         <v>1840</v>
       </c>
@@ -19450,7 +19450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="947" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A947" s="2" t="s">
         <v>1842</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="948" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A948" s="2" t="s">
         <v>1844</v>
       </c>
@@ -19478,7 +19478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="949" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A949" s="2" t="s">
         <v>1845</v>
       </c>
@@ -19492,7 +19492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="950" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A950" s="2" t="s">
         <v>1847</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="951" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A951" s="2" t="s">
         <v>1849</v>
       </c>
@@ -19520,7 +19520,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="952" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A952" s="2" t="s">
         <v>1851</v>
       </c>
@@ -19534,7 +19534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="953" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A953" s="2" t="s">
         <v>1852</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="954" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A954" s="2" t="s">
         <v>1854</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="955" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A955" s="2" t="s">
         <v>1856</v>
       </c>
@@ -19576,7 +19576,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="956" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A956" s="2" t="s">
         <v>1858</v>
       </c>
@@ -19590,7 +19590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="957" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A957" s="2" t="s">
         <v>1860</v>
       </c>
@@ -19604,7 +19604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="958" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A958" s="2" t="s">
         <v>1862</v>
       </c>
@@ -19618,7 +19618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="959" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A959" s="2" t="s">
         <v>1863</v>
       </c>
@@ -19632,7 +19632,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="960" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A960" s="2" t="s">
         <v>1865</v>
       </c>
@@ -19646,7 +19646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="961" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A961" s="2" t="s">
         <v>1867</v>
       </c>
@@ -19660,7 +19660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="962" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A962" s="2" t="s">
         <v>1869</v>
       </c>
@@ -19674,7 +19674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="963" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A963" s="2" t="s">
         <v>1871</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="964" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A964" s="2" t="s">
         <v>1872</v>
       </c>
@@ -19702,7 +19702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="965" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A965" s="2" t="s">
         <v>1874</v>
       </c>
@@ -19716,7 +19716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="966" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A966" s="2" t="s">
         <v>1876</v>
       </c>
@@ -19730,7 +19730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="967" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A967" s="2" t="s">
         <v>1877</v>
       </c>
@@ -19744,7 +19744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="968" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A968" s="2" t="s">
         <v>1878</v>
       </c>
@@ -19758,7 +19758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="969" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A969" s="2" t="s">
         <v>1880</v>
       </c>
@@ -19772,7 +19772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="970" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A970" s="2" t="s">
         <v>1882</v>
       </c>
@@ -19786,7 +19786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="971" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A971" s="2" t="s">
         <v>1884</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="972" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A972" s="2" t="s">
         <v>1886</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="973" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A973" s="2" t="s">
         <v>1888</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="974" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A974" s="2" t="s">
         <v>1889</v>
       </c>
@@ -19842,7 +19842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="975" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A975" s="2" t="s">
         <v>1891</v>
       </c>
@@ -19856,7 +19856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="976" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A976" s="2" t="s">
         <v>1893</v>
       </c>
@@ -19870,7 +19870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="977" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A977" s="2" t="s">
         <v>1894</v>
       </c>
@@ -19884,7 +19884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="978" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A978" s="2" t="s">
         <v>1896</v>
       </c>
@@ -19898,7 +19898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="979" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A979" s="2" t="s">
         <v>1898</v>
       </c>
@@ -19912,7 +19912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="980" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A980" s="2" t="s">
         <v>1900</v>
       </c>
@@ -19926,7 +19926,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="981" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A981" s="2" t="s">
         <v>1902</v>
       </c>
@@ -19940,7 +19940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="982" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A982" s="2" t="s">
         <v>1904</v>
       </c>
@@ -19954,7 +19954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="983" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A983" s="2" t="s">
         <v>1906</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="984" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A984" s="2" t="s">
         <v>1907</v>
       </c>
@@ -19982,7 +19982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="985" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A985" s="2" t="s">
         <v>1909</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="986" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A986" s="2" t="s">
         <v>1911</v>
       </c>
@@ -20010,7 +20010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="987" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A987" s="2" t="s">
         <v>1912</v>
       </c>
@@ -20024,7 +20024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="988" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A988" s="2" t="s">
         <v>1913</v>
       </c>
@@ -20038,7 +20038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="989" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A989" s="2" t="s">
         <v>1915</v>
       </c>
@@ -20052,7 +20052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="990" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A990" s="2" t="s">
         <v>1916</v>
       </c>
@@ -20066,7 +20066,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="991" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A991" s="2" t="s">
         <v>1918</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="992" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A992" s="2" t="s">
         <v>1920</v>
       </c>
@@ -20094,7 +20094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="993" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A993" s="2" t="s">
         <v>1921</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="994" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A994" s="2" t="s">
         <v>1922</v>
       </c>
@@ -20122,7 +20122,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="995" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A995" s="2" t="s">
         <v>1924</v>
       </c>
@@ -20136,7 +20136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="996" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A996" s="2" t="s">
         <v>1926</v>
       </c>
@@ -20150,7 +20150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="997" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A997" s="2" t="s">
         <v>1928</v>
       </c>
@@ -20164,7 +20164,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="998" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A998" s="2" t="s">
         <v>1930</v>
       </c>
@@ -20178,7 +20178,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="999" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A999" s="2" t="s">
         <v>1932</v>
       </c>
@@ -20192,7 +20192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1000" s="2" t="s">
         <v>1934</v>
       </c>
@@ -20206,7 +20206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1001" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1001" s="2" t="s">
         <v>1935</v>
       </c>
